--- a/docs/数据库表.xlsx
+++ b/docs/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="238">
   <si>
     <t>数据库名：待定</t>
   </si>
@@ -53,628 +53,685 @@
     <t>t_age_verify_img</t>
   </si>
   <si>
+    <t>粉丝表</t>
+  </si>
+  <si>
+    <t>t_follower</t>
+  </si>
+  <si>
+    <t>用户粉丝表</t>
+  </si>
+  <si>
+    <t>用户创建的组的表</t>
+  </si>
+  <si>
+    <t>t_group</t>
+  </si>
+  <si>
+    <t>用户参加的组的表</t>
+  </si>
+  <si>
+    <t>t_join_group</t>
+  </si>
+  <si>
+    <t>主页访问记录</t>
+  </si>
+  <si>
+    <t>留言表</t>
+  </si>
+  <si>
+    <t>t_message</t>
+  </si>
+  <si>
+    <t>用户的留言表</t>
+  </si>
+  <si>
+    <t>屏蔽用户表</t>
+  </si>
+  <si>
+    <t>t_user_block</t>
+  </si>
+  <si>
+    <t>举报信息表</t>
+  </si>
+  <si>
+    <t>消息通知表</t>
+  </si>
+  <si>
+    <t>t_notice</t>
+  </si>
+  <si>
+    <t>未定</t>
+  </si>
+  <si>
+    <t>投稿模块</t>
+  </si>
+  <si>
+    <t>通话房间表</t>
+  </si>
+  <si>
+    <t>t_calling_room</t>
+  </si>
+  <si>
+    <t>通话房间-用户关联表</t>
+  </si>
+  <si>
+    <t>t_calling_user</t>
+  </si>
+  <si>
+    <t>通话房间和用户的关联表</t>
+  </si>
+  <si>
+    <t>投稿表</t>
+  </si>
+  <si>
+    <t>t_post</t>
+  </si>
+  <si>
+    <t>投稿图片表</t>
+  </si>
+  <si>
+    <t>t_post_img</t>
+  </si>
+  <si>
+    <t>评论表</t>
+  </si>
+  <si>
+    <t>t_comment</t>
+  </si>
+  <si>
+    <t>点赞表</t>
+  </si>
+  <si>
+    <t>t_like</t>
+  </si>
+  <si>
+    <t>统计模块</t>
+  </si>
+  <si>
+    <t>设备信息表</t>
+  </si>
+  <si>
+    <t>t_device</t>
+  </si>
+  <si>
+    <t>超管操作的模块</t>
+  </si>
+  <si>
+    <t>组分类表</t>
+  </si>
+  <si>
+    <t>t_group_category</t>
+  </si>
+  <si>
+    <t>用户创建的组的分类表</t>
+  </si>
+  <si>
+    <t>违禁词表</t>
+  </si>
+  <si>
+    <t>t_banned_words</t>
+  </si>
+  <si>
+    <t>US 无符号</t>
+  </si>
+  <si>
+    <t>P 主键</t>
+  </si>
+  <si>
+    <t>N 不为空</t>
+  </si>
+  <si>
+    <t>U 唯一</t>
+  </si>
+  <si>
+    <t>用户表（t_user）</t>
+  </si>
+  <si>
+    <t>用户年龄认证图片表（t_age_verify_img）</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>逻辑名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>用户标识ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>图片URL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>个人简介</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>头像URL</t>
+  </si>
+  <si>
+    <t>avatar_thumbnail</t>
+  </si>
+  <si>
+    <t>头像缩略图URL</t>
+  </si>
+  <si>
+    <t>屏蔽用户表（t_user_block）</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>封面URL</t>
+  </si>
+  <si>
+    <t>cover_thumbnail</t>
+  </si>
+  <si>
+    <t>封面缩略图URL</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>blocked_user_id</t>
+  </si>
+  <si>
+    <t>被屏蔽用户ID</t>
+  </si>
+  <si>
+    <t>用户表ID</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>is_blocked</t>
+  </si>
+  <si>
+    <t>是否屏蔽</t>
+  </si>
+  <si>
+    <t>is_age_verified</t>
+  </si>
+  <si>
+    <t>是否已年龄认证</t>
+  </si>
+  <si>
+    <t>is_vip</t>
+  </si>
+  <si>
+    <t>是否是VIP</t>
+  </si>
+  <si>
+    <t>is_new_user</t>
+  </si>
+  <si>
+    <t>是否是新用户</t>
+  </si>
+  <si>
+    <t>is_dangerous_user</t>
+  </si>
+  <si>
+    <t>是否是危险用户</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>密码加密使用</t>
+  </si>
+  <si>
+    <t>消息通知表（t_notice）</t>
+  </si>
+  <si>
+    <t>粉丝表（t_follower）</t>
+  </si>
+  <si>
+    <t>follower_id</t>
+  </si>
+  <si>
+    <t>粉丝ID</t>
+  </si>
+  <si>
+    <t>is_follow</t>
+  </si>
+  <si>
+    <t>是否关注</t>
+  </si>
+  <si>
+    <t>用户创建的组的表（t_group）</t>
+  </si>
+  <si>
+    <t>※用户创建的组</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
+    <t>group_category_id</t>
+  </si>
+  <si>
+    <t>组分类ID</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>组的标题</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>组的描述</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>is_need_agree</t>
+  </si>
+  <si>
+    <t>用户加入是否需要审核</t>
+  </si>
+  <si>
+    <t>is_calling_top</t>
+  </si>
+  <si>
+    <t>是否通话置顶</t>
+  </si>
+  <si>
+    <t>is_only_age_verfy</t>
+  </si>
+  <si>
+    <t>是否仅允许年龄认证的用户加入</t>
+  </si>
+  <si>
+    <t>is_only_same_gender</t>
+  </si>
+  <si>
+    <t>是否和创建者同性别的人加入</t>
+  </si>
+  <si>
+    <t>用户参加的组的表（t_join_group）</t>
+  </si>
+  <si>
+    <t>※用户参加的组</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>组ID</t>
+  </si>
+  <si>
+    <t>is_join</t>
+  </si>
+  <si>
+    <t>是否加入</t>
+  </si>
+  <si>
+    <t>留言表（t_message）</t>
+  </si>
+  <si>
+    <t>messenger_id</t>
+  </si>
+  <si>
+    <t>留言人ID</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>留言内容</t>
+  </si>
+  <si>
+    <t>通话房间表（t_calling_room）</t>
+  </si>
+  <si>
+    <t>评论表（t_comment）</t>
+  </si>
+  <si>
+    <t>ower_id</t>
+  </si>
+  <si>
+    <t>房主ID</t>
+  </si>
+  <si>
+    <t>房间标题</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>投稿ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>房间类型</t>
+  </si>
+  <si>
+    <t>"call","video"</t>
+  </si>
+  <si>
+    <t>commentator_id</t>
+  </si>
+  <si>
+    <t>评论人ID</t>
+  </si>
+  <si>
+    <t>max_participants</t>
+  </si>
+  <si>
+    <t>最大参与者</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父ID</t>
+  </si>
+  <si>
+    <t>为NULL时，评论投稿；不为NULL时，回复评论。</t>
+  </si>
+  <si>
+    <t>is_calling</t>
+  </si>
+  <si>
+    <t>是否正在进行中</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>start_at</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>end_at</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>点赞表（t_like）</t>
+  </si>
+  <si>
+    <t>通话房间-用户关联表（t_calling_user）</t>
+  </si>
+  <si>
+    <t>calling_room_id</t>
+  </si>
+  <si>
+    <t>房间ID</t>
+  </si>
+  <si>
+    <t>liker_id</t>
+  </si>
+  <si>
+    <t>点赞人ID</t>
+  </si>
+  <si>
+    <t>is_like</t>
+  </si>
+  <si>
+    <t>是否点赞</t>
+  </si>
+  <si>
+    <t>is_owner</t>
+  </si>
+  <si>
+    <t>是否是房主</t>
+  </si>
+  <si>
+    <t>join_at</t>
+  </si>
+  <si>
+    <t>加入房间时间</t>
+  </si>
+  <si>
+    <t>leave_at</t>
+  </si>
+  <si>
+    <t>离开房间时间</t>
+  </si>
+  <si>
+    <t>投稿表（t_post）</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>投稿类型</t>
+  </si>
+  <si>
+    <t>"text","image","call","video"</t>
+  </si>
+  <si>
+    <t>投稿图片表（t_post_img）</t>
+  </si>
+  <si>
+    <t>img_thumbnail</t>
+  </si>
+  <si>
+    <t>图片缩略图URL</t>
+  </si>
+  <si>
+    <t>设备信息表（t_device）</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>"Andorid","IOS"</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>skd_version</t>
+  </si>
+  <si>
+    <t>SDK版本</t>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>制造商</t>
+  </si>
+  <si>
+    <t>组分类表（t_group_category）</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>分类图标URL</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>分类颜色</t>
+  </si>
+  <si>
+    <t>页面显示使用</t>
+  </si>
+  <si>
+    <t>违禁词表（t_banned_words）</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
     <t>违禁词</t>
   </si>
   <si>
-    <t>粉丝表</t>
-  </si>
-  <si>
-    <t>t_follower</t>
-  </si>
-  <si>
-    <t>用户粉丝表</t>
-  </si>
-  <si>
-    <t>设备信息统计</t>
-  </si>
-  <si>
-    <t>用户创建的组的表</t>
-  </si>
-  <si>
-    <t>t_group</t>
-  </si>
-  <si>
-    <t>用户参加的组的表</t>
-  </si>
-  <si>
-    <t>t_join_group</t>
-  </si>
-  <si>
-    <t>主页访问记录</t>
-  </si>
-  <si>
-    <t>留言表</t>
-  </si>
-  <si>
-    <t>t_message</t>
-  </si>
-  <si>
-    <t>用户的留言表</t>
-  </si>
-  <si>
-    <t>屏蔽用户表</t>
-  </si>
-  <si>
-    <t>t_user_block</t>
-  </si>
-  <si>
-    <t>举报信息表</t>
-  </si>
-  <si>
-    <t>消息通知表</t>
-  </si>
-  <si>
-    <t>t_notice</t>
-  </si>
-  <si>
-    <t>未定</t>
-  </si>
-  <si>
-    <t>投稿模块</t>
-  </si>
-  <si>
-    <t>通话房间表</t>
-  </si>
-  <si>
-    <t>t_calling_room</t>
-  </si>
-  <si>
-    <t>通话房间-用户关联表</t>
-  </si>
-  <si>
-    <t>t_calling_user</t>
-  </si>
-  <si>
-    <t>通话房间和用户的关联表</t>
-  </si>
-  <si>
-    <t>投稿表</t>
-  </si>
-  <si>
-    <t>t_post</t>
-  </si>
-  <si>
-    <t>投稿图片表</t>
-  </si>
-  <si>
-    <t>t_post_img</t>
-  </si>
-  <si>
-    <t>评论表</t>
-  </si>
-  <si>
-    <t>t_comment</t>
-  </si>
-  <si>
-    <t>点赞表</t>
-  </si>
-  <si>
-    <t>t_like</t>
-  </si>
-  <si>
-    <t>统计模块</t>
-  </si>
-  <si>
-    <t>超管操作的模块</t>
-  </si>
-  <si>
-    <t>组分类表</t>
-  </si>
-  <si>
-    <t>t_group_category</t>
-  </si>
-  <si>
-    <t>用户创建的组的分类表</t>
-  </si>
-  <si>
-    <t>违禁词表</t>
-  </si>
-  <si>
-    <t>t_banned_words</t>
-  </si>
-  <si>
-    <t>US 无符号</t>
-  </si>
-  <si>
-    <t>P 主键</t>
-  </si>
-  <si>
-    <t>N 不为空</t>
-  </si>
-  <si>
-    <t>U 唯一</t>
-  </si>
-  <si>
-    <t>用户表（t_user）</t>
-  </si>
-  <si>
-    <t>用户年龄认证图片表（t_age_verify_img）</t>
-  </si>
-  <si>
-    <t>列名</t>
-  </si>
-  <si>
-    <t>逻辑名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>用户标识ID</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>图片URL</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>biography</t>
-  </si>
-  <si>
-    <t>个人简介</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>头像URL</t>
-  </si>
-  <si>
-    <t>avatar_thumbnail</t>
-  </si>
-  <si>
-    <t>头像缩略图URL</t>
-  </si>
-  <si>
-    <t>屏蔽用户表（t_user_block）</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>封面URL</t>
-  </si>
-  <si>
-    <t>cover_thumbnail</t>
-  </si>
-  <si>
-    <t>封面缩略图URL</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>blocked_user_id</t>
-  </si>
-  <si>
-    <t>被屏蔽用户ID</t>
-  </si>
-  <si>
-    <t>用户表ID</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>is_blocked</t>
-  </si>
-  <si>
-    <t>是否屏蔽</t>
-  </si>
-  <si>
-    <t>is_age_verified</t>
-  </si>
-  <si>
-    <t>是否已年龄认证</t>
-  </si>
-  <si>
-    <t>is_vip</t>
-  </si>
-  <si>
-    <t>是否是VIP</t>
-  </si>
-  <si>
-    <t>is_new_user</t>
-  </si>
-  <si>
-    <t>是否是新用户</t>
-  </si>
-  <si>
-    <t>is_dangerous_user</t>
-  </si>
-  <si>
-    <t>是否是危险用户</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>密码加密使用</t>
-  </si>
-  <si>
-    <t>消息通知表（t_notice）</t>
-  </si>
-  <si>
-    <t>粉丝表（t_follower）</t>
-  </si>
-  <si>
-    <t>follower_id</t>
-  </si>
-  <si>
-    <t>粉丝ID</t>
-  </si>
-  <si>
-    <t>is_follow</t>
-  </si>
-  <si>
-    <t>是否关注</t>
-  </si>
-  <si>
-    <t>用户创建的组的表（t_group）</t>
-  </si>
-  <si>
-    <t>※用户创建的组</t>
-  </si>
-  <si>
-    <t>creator_id</t>
-  </si>
-  <si>
-    <t>创建人ID</t>
-  </si>
-  <si>
-    <t>group_category_id</t>
-  </si>
-  <si>
-    <t>组分类ID</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>组的标题</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>组的描述</t>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-  </si>
-  <si>
-    <t>is_need_agree</t>
-  </si>
-  <si>
-    <t>用户加入是否需要审核</t>
-  </si>
-  <si>
-    <t>is_calling_top</t>
-  </si>
-  <si>
-    <t>是否通话置顶</t>
-  </si>
-  <si>
-    <t>is_only_age_verfy</t>
-  </si>
-  <si>
-    <t>是否仅允许年龄认证的用户加入</t>
-  </si>
-  <si>
-    <t>is_only_same_gender</t>
-  </si>
-  <si>
-    <t>是否和创建者同性别的人加入</t>
-  </si>
-  <si>
-    <t>用户参加的组的表（t_join_group）</t>
-  </si>
-  <si>
-    <t>※用户参加的组</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>组ID</t>
-  </si>
-  <si>
-    <t>is_join</t>
-  </si>
-  <si>
-    <t>是否加入</t>
-  </si>
-  <si>
-    <t>留言表（t_message）</t>
-  </si>
-  <si>
-    <t>messenger_id</t>
-  </si>
-  <si>
-    <t>留言人ID</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>留言内容</t>
-  </si>
-  <si>
-    <t>通话房间表（t_calling_room）</t>
-  </si>
-  <si>
-    <t>评论表（t_comment）</t>
-  </si>
-  <si>
-    <t>ower_id</t>
-  </si>
-  <si>
-    <t>房主ID</t>
-  </si>
-  <si>
-    <t>房间标题</t>
-  </si>
-  <si>
-    <t>post_id</t>
-  </si>
-  <si>
-    <t>投稿ID</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>房间类型</t>
-  </si>
-  <si>
-    <t>"call","video"</t>
-  </si>
-  <si>
-    <t>commentator_id</t>
-  </si>
-  <si>
-    <t>评论人ID</t>
-  </si>
-  <si>
-    <t>max_participants</t>
-  </si>
-  <si>
-    <t>最大参与者</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>父ID</t>
-  </si>
-  <si>
-    <t>为NULL时，评论投稿；不为NULL时，回复评论。</t>
-  </si>
-  <si>
-    <t>is_calling</t>
-  </si>
-  <si>
-    <t>是否正在进行中</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>评论内容</t>
-  </si>
-  <si>
-    <t>start_at</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>end_at</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>点赞表（t_like）</t>
-  </si>
-  <si>
-    <t>通话房间-用户关联表（t_calling_user）</t>
-  </si>
-  <si>
-    <t>calling_room_id</t>
-  </si>
-  <si>
-    <t>房间ID</t>
-  </si>
-  <si>
-    <t>liker_id</t>
-  </si>
-  <si>
-    <t>点赞人ID</t>
-  </si>
-  <si>
-    <t>is_like</t>
-  </si>
-  <si>
-    <t>是否点赞</t>
-  </si>
-  <si>
-    <t>is_owner</t>
-  </si>
-  <si>
-    <t>是否是房主</t>
-  </si>
-  <si>
-    <t>join_at</t>
-  </si>
-  <si>
-    <t>加入房间时间</t>
-  </si>
-  <si>
-    <t>leave_at</t>
-  </si>
-  <si>
-    <t>离开房间时间</t>
-  </si>
-  <si>
-    <t>投稿表（t_post）</t>
-  </si>
-  <si>
-    <t>投稿内容</t>
-  </si>
-  <si>
-    <t>投稿类型</t>
-  </si>
-  <si>
-    <t>"text","image","call","video"</t>
-  </si>
-  <si>
-    <t>投稿图片表（t_post_img）</t>
-  </si>
-  <si>
-    <t>img_thumbnail</t>
-  </si>
-  <si>
-    <t>图片缩略图URL</t>
-  </si>
-  <si>
-    <t>表（t_）</t>
-  </si>
-  <si>
-    <t>组分类表（t_group_category）</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>分类名称</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>分类图标URL</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>分类颜色</t>
-  </si>
-  <si>
-    <t>页面显示使用</t>
-  </si>
-  <si>
-    <t>违禁词表（t_banned_words）</t>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>适用场景："general","group","user"</t>
   </si>
 </sst>
 </file>
@@ -682,9 +739,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -714,22 +771,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -738,22 +779,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,9 +794,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,70 +900,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,13 +954,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,79 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,19 +1074,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,43 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,6 +1190,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1151,21 +1258,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,188 +1285,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,8 +1840,8 @@
   <sheetPr/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1835,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:4">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
@@ -1846,175 +1903,175 @@
       <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16"/>
@@ -5076,15 +5133,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="7" width="3.375" customWidth="1"/>
@@ -5227,20 +5284,34 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5249,9 +5320,15 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5260,9 +5337,15 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5271,9 +5354,15 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5282,15 +5371,63 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:10">
+      <c r="B15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:10">
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5301,10 +5438,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5314,7 +5451,7 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="7" width="3.375" customWidth="1"/>
     <col min="8" max="8" width="3.75" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
@@ -5388,7 +5525,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5453,10 +5590,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>105</v>
@@ -5470,10 +5607,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>72</v>
@@ -5487,10 +5624,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>105</v>
@@ -5501,7 +5638,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
@@ -5565,7 +5702,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5627,15 +5764,103 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" ht="14.25" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
       <c r="J20" s="5"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:10">
+      <c r="B21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:10">
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:10">
+      <c r="B23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:10">
+      <c r="B24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/数据库表.xlsx
+++ b/docs/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="238">
   <si>
     <t>数据库名：待定</t>
   </si>
@@ -716,7 +716,7 @@
     <t>分类颜色</t>
   </si>
   <si>
-    <t>页面显示使用</t>
+    <t>十六进制颜色，页面显示使用</t>
   </si>
   <si>
     <t>违禁词表（t_banned_words）</t>
@@ -739,10 +739,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -771,6 +771,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -779,7 +802,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,23 +855,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,92 +908,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,7 +954,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1044,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,67 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,43 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,26 +1199,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,11 +1229,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,23 +1262,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,148 +1290,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,7 +1840,7 @@
   <sheetPr/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -3886,8 +3886,8 @@
   <sheetPr/>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5133,10 +5133,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5285,29 +5285,31 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>212</v>
@@ -5317,14 +5319,16 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>212</v>
@@ -5338,13 +5342,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -5355,10 +5359,10 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>220</v>
@@ -5372,13 +5376,13 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -5389,31 +5393,27 @@
     </row>
     <row r="15" ht="14.25" spans="2:10">
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" ht="14.25" spans="2:10">
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>68</v>
@@ -5428,6 +5428,27 @@
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:10">
+      <c r="B17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5441,7 +5462,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/docs/数据库表.xlsx
+++ b/docs/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="252">
   <si>
     <t>数据库名：待定</t>
   </si>
@@ -74,9 +74,6 @@
     <t>t_join_group</t>
   </si>
   <si>
-    <t>主页访问记录</t>
-  </si>
-  <si>
     <t>留言表</t>
   </si>
   <si>
@@ -104,6 +101,15 @@
     <t>未定</t>
   </si>
   <si>
+    <t>主页访问历史表</t>
+  </si>
+  <si>
+    <t>t_history</t>
+  </si>
+  <si>
+    <t>举报理由表</t>
+  </si>
+  <si>
     <t>投稿模块</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t>t_device</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>超管操作的模块</t>
   </si>
   <si>
@@ -398,7 +407,19 @@
     <t>密码加密使用</t>
   </si>
   <si>
-    <t>消息通知表（t_notice）</t>
+    <t>主页访问历史表（t_history）</t>
+  </si>
+  <si>
+    <t>visitor_id</t>
+  </si>
+  <si>
+    <t>访问者ID</t>
+  </si>
+  <si>
+    <t>visited_id</t>
+  </si>
+  <si>
+    <t>被访问者ID</t>
   </si>
   <si>
     <t>粉丝表（t_follower）</t>
@@ -732,6 +753,27 @@
   </si>
   <si>
     <t>适用场景："general","group","user"</t>
+  </si>
+  <si>
+    <t>举报表（t_report）</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>举报人ID</t>
+  </si>
+  <si>
+    <t>reproted_id</t>
+  </si>
+  <si>
+    <t>被举报信息ID</t>
+  </si>
+  <si>
+    <t>根据类型设置ID</t>
+  </si>
+  <si>
+    <t>"call","post","group"</t>
   </si>
 </sst>
 </file>
@@ -739,10 +781,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -771,38 +813,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,8 +827,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,14 +875,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,21 +890,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -878,6 +913,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -886,23 +929,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,13 +996,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,13 +1104,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,7 +1146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,127 +1158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1230,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,17 +1284,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,30 +1306,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,152 +1332,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,14 +1514,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1838,10 +1889,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1893,7 +1944,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1956,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1917,7 +1968,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
@@ -1928,8 +1979,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14"/>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1939,68 +1990,69 @@
       <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12"/>
+      <c r="O12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
@@ -2008,23 +2060,23 @@
         <v>32</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2088,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2100,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
@@ -2060,71 +2112,74 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="19"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="16"/>
       <c r="B26" s="13" t="s">
         <v>49</v>
       </c>
@@ -2132,41 +2187,47 @@
         <v>50</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2207,12 +2268,18 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
     </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2225,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2252,22 +2319,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:9">
@@ -2275,103 +2342,103 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="R7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2380,39 +2447,39 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="9"/>
@@ -2420,13 +2487,13 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
       <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -2435,13 +2502,13 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
@@ -2452,13 +2519,13 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -2467,13 +2534,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
@@ -2484,13 +2551,13 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -2499,20 +2566,20 @@
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
@@ -2520,37 +2587,37 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -2558,13 +2625,13 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -2575,13 +2642,13 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="2:12">
       <c r="B15" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -2593,13 +2660,13 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="2:19">
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -2608,19 +2675,19 @@
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:20">
       <c r="B17" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -2629,42 +2696,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -2673,19 +2740,19 @@
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2694,13 +2761,13 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
@@ -2709,13 +2776,13 @@
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
@@ -2726,13 +2793,13 @@
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
@@ -2741,13 +2808,13 @@
       <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
@@ -2755,18 +2822,18 @@
       <c r="R20" s="7"/>
       <c r="S20" s="9"/>
       <c r="T20" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -2775,13 +2842,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
@@ -2792,13 +2859,13 @@
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -2807,20 +2874,20 @@
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -2828,13 +2895,13 @@
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
@@ -2843,20 +2910,20 @@
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
@@ -2864,13 +2931,13 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
@@ -2881,13 +2948,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -2898,13 +2965,13 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -2912,95 +2979,95 @@
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="L27" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3008,34 +3075,64 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="12:20">
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
+      <c r="L29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="R29" s="7"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="5"/>
+      <c r="T29" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="30" spans="12:20">
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+      <c r="L30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="R30" s="7"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -3045,143 +3142,145 @@
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="Q32" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="R32" s="7"/>
       <c r="S32" s="9"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
+      <c r="L33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="R33" s="7"/>
       <c r="S33" s="9"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="9"/>
       <c r="J34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="2:20">
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
       <c r="J35" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="2:20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
@@ -3189,32 +3288,23 @@
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
@@ -3222,20 +3312,20 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
@@ -3243,56 +3333,56 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3301,43 +3391,43 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="9"/>
       <c r="J44" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="9"/>
@@ -3345,18 +3435,18 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="9"/>
@@ -3364,13 +3454,13 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
@@ -3381,13 +3471,13 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
@@ -3398,13 +3488,13 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -3415,13 +3505,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
@@ -3432,13 +3522,13 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -3449,13 +3539,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -3466,13 +3556,13 @@
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
@@ -3483,13 +3573,13 @@
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
@@ -3500,20 +3590,20 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="9"/>
@@ -3521,20 +3611,20 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="9"/>
@@ -3542,56 +3632,56 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -3600,20 +3690,20 @@
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="9"/>
@@ -3621,20 +3711,20 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="9"/>
@@ -3642,13 +3732,13 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
@@ -3659,20 +3749,20 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
@@ -3680,20 +3770,20 @@
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
@@ -3701,53 +3791,53 @@
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -3756,20 +3846,20 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="9"/>
@@ -3777,36 +3867,36 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="9"/>
       <c r="J73" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
@@ -3817,13 +3907,13 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
@@ -3834,20 +3924,20 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
@@ -3855,20 +3945,20 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
@@ -3887,7 +3977,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G24"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3907,7 +3997,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3921,7 +4011,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3935,7 +4025,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3949,7 +4039,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3976,7 +4066,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3990,34 +4080,34 @@
     <row r="7" ht="14.25" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4031,88 +4121,88 @@
     <row r="8" ht="14.25" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -4121,13 +4211,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -4136,20 +4226,20 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
@@ -4157,60 +4247,60 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4220,34 +4310,34 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -4256,18 +4346,18 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -4275,32 +4365,32 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -4311,16 +4401,16 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4328,20 +4418,20 @@
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="9"/>
@@ -4349,39 +4439,39 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="9"/>
@@ -4389,20 +4479,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -4410,7 +4500,7 @@
     </row>
     <row r="19" ht="14.25" spans="12:20">
       <c r="L19" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4423,7 +4513,7 @@
     </row>
     <row r="20" ht="14.25" spans="2:20">
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4434,75 +4524,75 @@
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="L20" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:20">
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -4511,39 +4601,39 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -4551,74 +4641,74 @@
     </row>
     <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
       <c r="T23" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
@@ -4629,13 +4719,13 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -4644,20 +4734,20 @@
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="9"/>
@@ -4665,39 +4755,39 @@
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="9"/>
@@ -4705,16 +4795,16 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -4724,20 +4814,20 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
@@ -4745,20 +4835,20 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
@@ -4766,7 +4856,7 @@
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4779,48 +4869,48 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -4829,20 +4919,20 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
@@ -4850,16 +4940,16 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -4869,13 +4959,13 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
@@ -4886,34 +4976,34 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
       <c r="J38" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -4924,20 +5014,20 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
@@ -4945,20 +5035,20 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
@@ -4966,7 +5056,7 @@
     </row>
     <row r="44" ht="14.25" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4979,48 +5069,48 @@
     </row>
     <row r="45" ht="14.25" spans="2:10">
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -5029,20 +5119,20 @@
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
@@ -5050,13 +5140,13 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
@@ -5067,13 +5157,13 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -5084,20 +5174,20 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -5105,20 +5195,20 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -5135,8 +5225,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5151,7 +5241,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5165,7 +5255,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5179,7 +5269,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5193,7 +5283,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5220,7 +5310,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5234,49 +5324,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5285,20 +5375,20 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
@@ -5306,13 +5396,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -5320,18 +5410,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -5342,13 +5432,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -5359,13 +5449,13 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -5376,13 +5466,13 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -5393,13 +5483,13 @@
     </row>
     <row r="15" ht="14.25" spans="2:10">
       <c r="B15" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -5410,20 +5500,20 @@
     </row>
     <row r="16" ht="14.25" spans="2:10">
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -5431,20 +5521,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -5459,10 +5549,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5477,7 +5567,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5491,7 +5581,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5505,7 +5595,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5519,7 +5609,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5546,7 +5636,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5560,49 +5650,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5611,13 +5701,13 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
@@ -5628,13 +5718,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -5645,13 +5735,13 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -5659,18 +5749,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -5681,20 +5771,20 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
@@ -5702,20 +5792,20 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -5723,7 +5813,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5736,48 +5826,48 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:10">
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5786,18 +5876,18 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
@@ -5805,34 +5895,34 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -5843,20 +5933,20 @@
     </row>
     <row r="23" ht="14.25" spans="2:10">
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
@@ -5864,24 +5954,209 @@
     </row>
     <row r="24" ht="14.25" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:10">
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="2:10">
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:10">
+      <c r="B30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="2:10">
+      <c r="B31" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:10">
+      <c r="B32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="2:10">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" ht="14.25" spans="2:10">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="2:10">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" ht="14.25" spans="2:10">
+      <c r="B36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" ht="14.25" spans="2:10">
+      <c r="B37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/数据库表.xlsx
+++ b/docs/数据库表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="用户模块" sheetId="2" r:id="rId2"/>
     <sheet name="投稿模块" sheetId="3" r:id="rId3"/>
     <sheet name="统计模块" sheetId="5" r:id="rId4"/>
-    <sheet name="超管操作的模块" sheetId="4" r:id="rId5"/>
+    <sheet name="管理员操作的模块" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="314">
   <si>
     <t>数据库名：待定</t>
   </si>
@@ -44,7 +44,7 @@
     <t>t_user</t>
   </si>
   <si>
-    <t>登录状态</t>
+    <t>登录状态/日志</t>
   </si>
   <si>
     <t>用户年龄认证图片表</t>
@@ -89,9 +89,6 @@
     <t>t_user_block</t>
   </si>
   <si>
-    <t>举报信息表</t>
-  </si>
-  <si>
     <t>消息通知表</t>
   </si>
   <si>
@@ -107,79 +104,121 @@
     <t>t_history</t>
   </si>
   <si>
+    <t>管理员表</t>
+  </si>
+  <si>
+    <t>t_admin</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>t_role</t>
+  </si>
+  <si>
+    <t>权限表</t>
+  </si>
+  <si>
+    <t>t_permission</t>
+  </si>
+  <si>
+    <t>管理员-角色关联表</t>
+  </si>
+  <si>
+    <t>t_admin_role</t>
+  </si>
+  <si>
+    <t>管理员和角色的关联表</t>
+  </si>
+  <si>
+    <t>角色-权限关联表</t>
+  </si>
+  <si>
+    <t>t_role_permission</t>
+  </si>
+  <si>
+    <t>角色和权限的关联表</t>
+  </si>
+  <si>
+    <t>投稿模块</t>
+  </si>
+  <si>
+    <t>通话房间表</t>
+  </si>
+  <si>
+    <t>t_calling_room</t>
+  </si>
+  <si>
+    <t>通话房间-用户关联表</t>
+  </si>
+  <si>
+    <t>t_calling_user</t>
+  </si>
+  <si>
+    <t>通话房间和用户的关联表</t>
+  </si>
+  <si>
+    <t>投稿表</t>
+  </si>
+  <si>
+    <t>t_post</t>
+  </si>
+  <si>
+    <t>投稿图片表</t>
+  </si>
+  <si>
+    <t>t_post_img</t>
+  </si>
+  <si>
+    <t>评论表</t>
+  </si>
+  <si>
+    <t>t_comment</t>
+  </si>
+  <si>
+    <t>点赞表</t>
+  </si>
+  <si>
+    <t>t_like</t>
+  </si>
+  <si>
+    <t>统计模块</t>
+  </si>
+  <si>
+    <t>设备信息表</t>
+  </si>
+  <si>
+    <t>t_device</t>
+  </si>
+  <si>
+    <t>管理员操作的模块</t>
+  </si>
+  <si>
+    <t>组分类表</t>
+  </si>
+  <si>
+    <t>t_group_category</t>
+  </si>
+  <si>
+    <t>用户创建的组的分类表</t>
+  </si>
+  <si>
+    <t>违禁词表</t>
+  </si>
+  <si>
+    <t>t_banned_words</t>
+  </si>
+  <si>
+    <t>举报表</t>
+  </si>
+  <si>
+    <t>t_report</t>
+  </si>
+  <si>
     <t>举报理由表</t>
   </si>
   <si>
-    <t>投稿模块</t>
-  </si>
-  <si>
-    <t>通话房间表</t>
-  </si>
-  <si>
-    <t>t_calling_room</t>
-  </si>
-  <si>
-    <t>通话房间-用户关联表</t>
-  </si>
-  <si>
-    <t>t_calling_user</t>
-  </si>
-  <si>
-    <t>通话房间和用户的关联表</t>
-  </si>
-  <si>
-    <t>投稿表</t>
-  </si>
-  <si>
-    <t>t_post</t>
-  </si>
-  <si>
-    <t>投稿图片表</t>
-  </si>
-  <si>
-    <t>t_post_img</t>
-  </si>
-  <si>
-    <t>评论表</t>
-  </si>
-  <si>
-    <t>t_comment</t>
-  </si>
-  <si>
-    <t>点赞表</t>
-  </si>
-  <si>
-    <t>t_like</t>
-  </si>
-  <si>
-    <t>统计模块</t>
-  </si>
-  <si>
-    <t>设备信息表</t>
-  </si>
-  <si>
-    <t>t_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>超管操作的模块</t>
-  </si>
-  <si>
-    <t>组分类表</t>
-  </si>
-  <si>
-    <t>t_group_category</t>
-  </si>
-  <si>
-    <t>用户创建的组的分类表</t>
-  </si>
-  <si>
-    <t>违禁词表</t>
-  </si>
-  <si>
-    <t>t_banned_words</t>
+    <t>t_report_reason</t>
   </si>
   <si>
     <t>US 无符号</t>
@@ -260,6 +299,9 @@
     <t>手机号</t>
   </si>
   <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
     <t>img</t>
   </si>
   <si>
@@ -272,6 +314,9 @@
     <t>邮箱</t>
   </si>
   <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
     <t>is_deleted</t>
   </si>
   <si>
@@ -353,6 +398,12 @@
     <t>性别</t>
   </si>
   <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>0：女，1：男</t>
+  </si>
+  <si>
     <t>blocked_user_id</t>
   </si>
   <si>
@@ -527,6 +578,81 @@
     <t>留言内容</t>
   </si>
   <si>
+    <t>管理员表（t_admin）</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>real_name</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>CHAR(18)</t>
+  </si>
+  <si>
+    <t>角色表（t_role）</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>ename</t>
+  </si>
+  <si>
+    <t>角色英文名称</t>
+  </si>
+  <si>
+    <t>角色描述</t>
+  </si>
+  <si>
+    <t>权限表（t_permission）</t>
+  </si>
+  <si>
+    <t>权限名称</t>
+  </si>
+  <si>
+    <t>权限英文名称</t>
+  </si>
+  <si>
+    <t>权限描述</t>
+  </si>
+  <si>
+    <t>管理员-角色关联表（t_admin_role）</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>管理员ID</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>角色-权限关联表（t_role_permission）</t>
+  </si>
+  <si>
+    <t>permission_id</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
     <t>通话房间表（t_calling_room）</t>
   </si>
   <si>
@@ -569,9 +695,6 @@
     <t>最大参与者</t>
   </si>
   <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
     <t>parent_id</t>
   </si>
   <si>
@@ -677,9 +800,6 @@
     <t>平台</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>"Andorid","IOS"</t>
   </si>
   <si>
@@ -701,9 +821,6 @@
     <t>SDK版本</t>
   </si>
   <si>
-    <t>CHAR(5)</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -719,9 +836,6 @@
     <t>组分类表（t_group_category）</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>分类名称</t>
   </si>
   <si>
@@ -737,7 +851,7 @@
     <t>分类颜色</t>
   </si>
   <si>
-    <t>十六进制颜色，页面显示使用</t>
+    <t>十六进制表示的颜色，页面显示使用</t>
   </si>
   <si>
     <t>违禁词表（t_banned_words）</t>
@@ -770,10 +884,82 @@
     <t>被举报信息ID</t>
   </si>
   <si>
-    <t>根据类型设置ID</t>
+    <t>根据类型设置。通话房间ID，投稿ID...</t>
+  </si>
+  <si>
+    <t>report_reason_id</t>
+  </si>
+  <si>
+    <t>举报理由ID</t>
+  </si>
+  <si>
+    <t>CHAR(16)</t>
   </si>
   <si>
     <t>"call","post","group"</t>
+  </si>
+  <si>
+    <t>attach_img1</t>
+  </si>
+  <si>
+    <t>附件图片1的URL</t>
+  </si>
+  <si>
+    <t>attach_img2</t>
+  </si>
+  <si>
+    <t>附件图片2的URL</t>
+  </si>
+  <si>
+    <t>attach_img3</t>
+  </si>
+  <si>
+    <t>附件图片3的URL</t>
+  </si>
+  <si>
+    <t>attach_img4</t>
+  </si>
+  <si>
+    <t>附件图片4的URL</t>
+  </si>
+  <si>
+    <t>attach_img5</t>
+  </si>
+  <si>
+    <t>附件图片5的URL</t>
+  </si>
+  <si>
+    <t>详细描述</t>
+  </si>
+  <si>
+    <t>is_handled</t>
+  </si>
+  <si>
+    <t>是否已处理</t>
+  </si>
+  <si>
+    <t>handler_id</t>
+  </si>
+  <si>
+    <t>处理人ID</t>
+  </si>
+  <si>
+    <t>管理员表ID</t>
+  </si>
+  <si>
+    <t>handled_at</t>
+  </si>
+  <si>
+    <t>处理时间</t>
+  </si>
+  <si>
+    <t>举报理由表（t_report_reason）</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>内容</t>
   </si>
 </sst>
 </file>
@@ -781,10 +967,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -813,8 +999,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,43 +1054,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,16 +1075,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -913,14 +1099,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -929,10 +1107,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,20 +1122,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,6 +1170,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -996,25 +1188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +1206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,25 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,6 +1242,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1092,7 +1284,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,67 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,6 +1422,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1245,11 +1461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,17 +1491,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,69 +1519,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,116 +1560,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,10 +1700,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1523,7 +1721,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1889,10 +2090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1902,384 +2103,443 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="4.125" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12"/>
-      <c r="O12" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="D13" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D15" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="J21" t="s">
+      <c r="C20" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="19"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="19"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2290,10 +2550,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2319,22 +2579,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:9">
@@ -2342,103 +2602,103 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2447,39 +2707,39 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="9"/>
@@ -2487,13 +2747,13 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -2502,13 +2762,13 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
@@ -2519,13 +2779,13 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -2534,13 +2794,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
@@ -2551,13 +2811,13 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -2566,20 +2826,20 @@
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
@@ -2587,37 +2847,37 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -2625,13 +2885,13 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -2642,13 +2902,13 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="2:12">
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -2660,13 +2920,13 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="2:19">
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -2675,19 +2935,19 @@
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:20">
       <c r="B17" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -2696,42 +2956,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -2740,19 +3000,19 @@
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2761,13 +3021,13 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
@@ -2776,13 +3036,13 @@
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
@@ -2793,28 +3053,30 @@
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="L20" s="5" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
@@ -2822,18 +3084,18 @@
       <c r="R20" s="7"/>
       <c r="S20" s="9"/>
       <c r="T20" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -2842,13 +3104,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
@@ -2859,13 +3121,13 @@
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -2874,20 +3136,20 @@
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -2895,13 +3157,13 @@
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
@@ -2910,20 +3172,20 @@
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
@@ -2931,13 +3193,13 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
@@ -2948,13 +3210,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -2965,13 +3227,13 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -2979,159 +3241,171 @@
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="L27" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="9"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="12:20">
+    <row r="29" spans="2:20">
+      <c r="B29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="9"/>
       <c r="T29" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="12:20">
       <c r="L30" s="5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="9"/>
       <c r="T30" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="12:20">
       <c r="L31" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
@@ -3141,88 +3415,72 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>68</v>
+      <c r="B32" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="9"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L33" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="9"/>
@@ -3230,223 +3488,225 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="9"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>68</v>
+    <row r="39" spans="2:10">
+      <c r="B39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="5" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="9"/>
@@ -3454,30 +3714,32 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
@@ -3488,13 +3750,13 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -3505,13 +3767,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
@@ -3522,13 +3784,13 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -3539,13 +3801,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -3556,13 +3818,13 @@
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="5" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
@@ -3573,13 +3835,13 @@
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="5" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
@@ -3590,141 +3852,137 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="9"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="9"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>68</v>
+    <row r="57" spans="2:10">
+      <c r="B57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="9"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="9"/>
@@ -3732,188 +3990,192 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="5" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>68</v>
+    <row r="67" spans="2:10">
+      <c r="B67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="5"/>
+      <c r="B71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="9"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="5" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="5" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
@@ -3924,45 +4186,959 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E76" s="6"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
       <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3977,7 +5153,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3997,7 +5173,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4011,7 +5187,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4025,7 +5201,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4039,7 +5215,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4066,7 +5242,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4080,34 +5256,34 @@
     <row r="7" ht="14.25" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4121,88 +5297,88 @@
     <row r="8" ht="14.25" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -4211,13 +5387,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -4226,20 +5402,20 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
@@ -4247,60 +5423,60 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4310,34 +5486,34 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -4346,18 +5522,18 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -4365,32 +5541,32 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -4401,16 +5577,16 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4418,20 +5594,20 @@
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="9"/>
@@ -4439,39 +5615,39 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="9"/>
@@ -4479,20 +5655,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -4500,7 +5676,7 @@
     </row>
     <row r="19" ht="14.25" spans="12:20">
       <c r="L19" s="2" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4513,7 +5689,7 @@
     </row>
     <row r="20" ht="14.25" spans="2:20">
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4524,75 +5700,75 @@
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="L20" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:20">
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -4601,39 +5777,39 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -4641,74 +5817,74 @@
     </row>
     <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
       <c r="T23" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
@@ -4719,13 +5895,13 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -4734,20 +5910,20 @@
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="9"/>
@@ -4755,39 +5931,39 @@
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="9"/>
@@ -4795,16 +5971,16 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="5" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -4814,20 +5990,20 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
@@ -4835,20 +6011,20 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
@@ -4856,7 +6032,7 @@
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="2" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4869,48 +6045,48 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -4919,20 +6095,20 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
@@ -4940,16 +6116,16 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -4959,13 +6135,13 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
@@ -4976,34 +6152,34 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
       <c r="J38" s="5" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -5014,20 +6190,20 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
@@ -5035,20 +6211,20 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
@@ -5056,7 +6232,7 @@
     </row>
     <row r="44" ht="14.25" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5069,48 +6245,48 @@
     </row>
     <row r="45" ht="14.25" spans="2:10">
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -5119,20 +6295,20 @@
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
@@ -5140,13 +6316,13 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
@@ -5157,13 +6333,13 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -5174,20 +6350,20 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -5195,20 +6371,20 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -5226,7 +6402,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5241,7 +6417,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5255,7 +6431,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5269,7 +6445,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5283,7 +6459,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5310,7 +6486,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5324,49 +6500,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5375,20 +6551,20 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
@@ -5396,13 +6572,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -5410,18 +6586,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -5432,13 +6608,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -5449,13 +6625,13 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -5466,13 +6642,13 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -5483,13 +6659,13 @@
     </row>
     <row r="15" ht="14.25" spans="2:10">
       <c r="B15" s="5" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -5500,20 +6676,20 @@
     </row>
     <row r="16" ht="14.25" spans="2:10">
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -5521,20 +6697,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -5549,16 +6725,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="7" width="3.375" customWidth="1"/>
     <col min="8" max="8" width="3.75" customWidth="1"/>
@@ -5567,7 +6743,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5581,7 +6757,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5595,7 +6771,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5609,7 +6785,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5636,7 +6812,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5650,49 +6826,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5701,13 +6877,13 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
@@ -5718,13 +6894,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -5735,13 +6911,13 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -5749,18 +6925,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -5771,20 +6947,20 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
@@ -5792,20 +6968,20 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -5813,7 +6989,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5826,48 +7002,48 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:10">
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5876,18 +7052,18 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
@@ -5895,34 +7071,34 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -5933,20 +7109,20 @@
     </row>
     <row r="23" ht="14.25" spans="2:10">
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
@@ -5954,20 +7130,20 @@
     </row>
     <row r="24" ht="14.25" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -5975,7 +7151,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5988,48 +7164,48 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -6038,66 +7214,100 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+        <v>285</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+        <v>287</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="5" t="s">
-        <v>251</v>
-      </c>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" ht="14.25" spans="2:10">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -6106,9 +7316,15 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" ht="14.25" spans="2:10">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -6118,45 +7334,309 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5"/>
+    </row>
+    <row r="38" ht="14.25" spans="2:10">
+      <c r="B38" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="2:10">
+      <c r="B39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" ht="14.25" spans="2:10">
+      <c r="B40" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" ht="14.25" spans="2:10">
+      <c r="B41" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="2:10">
+      <c r="B42" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" ht="14.25" spans="2:10">
+      <c r="B43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" ht="14.25" spans="2:10">
+      <c r="B44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="47" ht="14.25" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" ht="14.25" spans="2:10">
+      <c r="B48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="2:10">
+      <c r="B49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" ht="14.25" spans="2:10">
+      <c r="B50" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" ht="14.25" spans="2:10">
+      <c r="B51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" ht="14.25" spans="2:10">
+      <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" ht="14.25" spans="2:10">
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
